--- a/ExampleSpreadsheet.xlsx
+++ b/ExampleSpreadsheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\2022\Spring\Advanced Data Science\Homework\Homework 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC429F6D-6701-40E8-9BA5-75FC48FD90CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BA915E-D1C9-494F-8AE0-570D332DA100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFBA0453-D306-44A3-8251-C3BA6B6BBEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>First Name</t>
   </si>
@@ -52,6 +53,30 @@
   </si>
   <si>
     <t>Grade</t>
+  </si>
+  <si>
+    <t>Acceptable Submission</t>
+  </si>
+  <si>
+    <t>Inacceptable Submission</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Bauman</t>
+  </si>
+  <si>
+    <t>Homework 1</t>
+  </si>
+  <si>
+    <t>This is not a valid entry for assignment title</t>
+  </si>
+  <si>
+    <t>If your last name is this long, you probably didn't read the instructions</t>
+  </si>
+  <si>
+    <t>If your first name is this long, you probably didn't read the instructions</t>
   </si>
 </sst>
 </file>
@@ -87,9 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +435,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +463,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -448,8 +476,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2" xr:uid="{B9A81EC3-2232-4481-8581-2D5BF70AE2E5}">
+  <dataValidations count="6">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{B9A81EC3-2232-4481-8581-2D5BF70AE2E5}">
       <formula1>20</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{FF5B95F3-D6E6-4E8A-B04D-36848CEEC73F}">
@@ -468,7 +496,141 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Length Error" error="The inputted data exceeds the allowed limit (20 characters)." promptTitle="First Name" prompt="Enter your first name" sqref="B1" xr:uid="{EE635A72-7007-4EF3-B553-8FCDF02AE5A3}">
+      <formula1>20</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A3B678-1313-42B9-A9E2-A6AF6B4BF359}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>